--- a/Assets/AssetBundles-Browser/Documentation~/AssetBundleBinary结构.xlsx
+++ b/Assets/AssetBundles-Browser/Documentation~/AssetBundleBinary结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitSpace\AssetBundles-Browser\Assets\AssetBundles-Browser\Documentation~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D58855A-69FA-469D-A0BD-A89B073197C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF6E302-B42E-469A-9DD1-455D04BAA645}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-315" windowWidth="38640" windowHeight="21240" xr2:uid="{107A9497-D135-4849-A46D-B07B92B7B8BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{107A9497-D135-4849-A46D-B07B92B7B8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0722C8-0014-41F9-8F0D-F7A1FFFE69C8}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
